--- a/newsWords/static/time.xlsx
+++ b/newsWords/static/time.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23.04.2021, 10:12:28</t>
+          <t>24.04.2021, 19:39:08</t>
         </is>
       </c>
     </row>
